--- a/doc/timeline.xlsx
+++ b/doc/timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb22c961fefb18f/Projects/SzoftverArchitekturak/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skydrive\Projects\SzoftverArchitekturak\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5085"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>WAT?!</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -571,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,8 +786,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>

--- a/doc/timeline.xlsx
+++ b/doc/timeline.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skydrive\Projects\SzoftverArchitekturak\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="5085"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -254,8 +249,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,12 +267,24 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,12 +299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,58 +576,59 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>41610</v>
       </c>
@@ -641,7 +651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>41610</v>
       </c>
@@ -664,7 +674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>41610</v>
       </c>
@@ -687,7 +697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>41610</v>
       </c>
@@ -710,7 +720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>41610</v>
       </c>
@@ -733,7 +743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -753,7 +763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -773,11 +783,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" t="s">
@@ -796,7 +806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>44</v>
       </c>
@@ -816,11 +826,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -836,7 +846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -856,7 +866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -876,7 +886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -896,7 +906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -916,7 +926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -933,7 +943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -953,7 +963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -970,7 +980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -987,7 +997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -1055,7 +1065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -1123,7 +1133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>41617</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" t="s">
         <v>51</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" t="s">
         <v>56</v>
       </c>
